--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.book.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.book.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498F755-2343-AD42-ACB1-92A1B7DD2275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFAA8FF-DD55-8742-96E4-14439CC00A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -314,9 +316,6 @@
     <t>UNION</t>
   </si>
   <si>
-    <t>resource.security</t>
-  </si>
-  <si>
     <t>f44084a0-6e79-40c0-8968-ec973e64407f</t>
   </si>
   <si>
@@ -601,6 +600,10 @@
   </si>
   <si>
     <t>fm.book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.fm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:E62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" customHeight="1"/>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="34"/>
@@ -1263,16 +1266,16 @@
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" ht="21">
       <c r="A3" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>175</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="21" customFormat="1" ht="21">
@@ -1280,97 +1283,97 @@
         <v>8</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="23" t="s">
         <v>178</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="21" customFormat="1" ht="21">
       <c r="A5" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>182</v>
-      </c>
       <c r="D5" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1" ht="21">
       <c r="A6" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="21" customFormat="1" ht="21">
       <c r="A7" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" ht="21">
       <c r="A8" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" ht="21">
       <c r="A9" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="21">
       <c r="A10" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21">
@@ -1438,10 +1441,10 @@
         <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1457,10 +1460,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1476,10 +1479,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1495,10 +1498,10 @@
         <v>23</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1514,10 +1517,10 @@
         <v>26</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1533,10 +1536,10 @@
         <v>29</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1629,13 +1632,13 @@
         <v>a9c0d221-4378-41bf-afe5-3b97ce2e9d01</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>49</v>
@@ -1658,13 +1661,13 @@
         <v>741de860-0e06-4d93-a2c2-8fcd9a91cdde</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>52</v>
@@ -1687,13 +1690,13 @@
         <v>6da6c6a9-e0c1-41a6-9743-8cbc5fce725d</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>55</v>
@@ -1716,13 +1719,13 @@
         <v>11ac066e-82d7-4654-91c9-7b93ffaa00e4</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>58</v>
@@ -1745,13 +1748,13 @@
         <v>a9c0d221-4378-41bf-afe5-3b97ce2e9d01</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>60</v>
@@ -1774,13 +1777,13 @@
         <v>6da6c6a9-e0c1-41a6-9743-8cbc5fce725d</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>62</v>
@@ -1803,13 +1806,13 @@
         <v>11ac066e-82d7-4654-91c9-7b93ffaa00e4</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>64</v>
@@ -1832,13 +1835,13 @@
         <v>5e8948d0-8662-4257-95ac-f07d8ad8da78</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>66</v>
@@ -1861,13 +1864,13 @@
         <v>5e8948d0-8662-4257-95ac-f07d8ad8da78</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>68</v>
@@ -1890,13 +1893,13 @@
         <v>5e8948d0-8662-4257-95ac-f07d8ad8da78</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>70</v>
@@ -1919,13 +1922,13 @@
         <v>954d29cf-8c38-42a9-80b3-19a6b9a80a21</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>72</v>
@@ -1948,13 +1951,13 @@
         <v>954d29cf-8c38-42a9-80b3-19a6b9a80a21</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>74</v>
@@ -1977,13 +1980,13 @@
         <v>a9c0d221-4378-41bf-afe5-3b97ce2e9d01</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>76</v>
@@ -2006,13 +2009,13 @@
         <v>a9c0d221-4378-41bf-afe5-3b97ce2e9d01</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>78</v>
@@ -2035,13 +2038,13 @@
         <v>a9c0d221-4378-41bf-afe5-3b97ce2e9d01</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>49</v>
@@ -2151,13 +2154,13 @@
         <v>95</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G48" s="12">
         <v>1</v>
@@ -2167,22 +2170,22 @@
     </row>
     <row r="49" spans="1:11" ht="21">
       <c r="A49" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E49" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G49" s="12">
         <v>4</v>
@@ -2192,22 +2195,22 @@
     </row>
     <row r="50" spans="1:11" ht="21">
       <c r="A50" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G50" s="12">
         <v>8</v>
@@ -2217,22 +2220,22 @@
     </row>
     <row r="51" spans="1:11" ht="21">
       <c r="A51" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G51" s="12">
         <v>12</v>
@@ -2242,22 +2245,22 @@
     </row>
     <row r="52" spans="1:11" ht="21">
       <c r="A52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E52" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G52" s="12">
         <v>1</v>
@@ -2267,22 +2270,22 @@
     </row>
     <row r="53" spans="1:11" ht="21">
       <c r="A53" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E53" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G53" s="12">
         <v>8</v>
@@ -2292,22 +2295,22 @@
     </row>
     <row r="54" spans="1:11" ht="21">
       <c r="A54" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E54" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G54" s="12">
         <v>12</v>
@@ -2317,22 +2320,22 @@
     </row>
     <row r="55" spans="1:11" ht="21">
       <c r="A55" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E55" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G55" s="12">
         <v>3</v>
@@ -2342,22 +2345,22 @@
     </row>
     <row r="56" spans="1:11" ht="21">
       <c r="A56" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E56" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G56" s="12">
         <v>3</v>
@@ -2367,22 +2370,22 @@
     </row>
     <row r="57" spans="1:11" ht="21">
       <c r="A57" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E57" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G57" s="12">
         <v>11</v>
@@ -2392,22 +2395,22 @@
     </row>
     <row r="58" spans="1:11" ht="21">
       <c r="A58" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E58" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G58" s="12">
         <v>5</v>
@@ -2417,22 +2420,22 @@
     </row>
     <row r="59" spans="1:11" ht="21">
       <c r="A59" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E59" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G59" s="12">
         <v>3</v>
@@ -2442,22 +2445,22 @@
     </row>
     <row r="60" spans="1:11" ht="21">
       <c r="A60" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E60" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G60" s="12">
         <v>1</v>
@@ -2467,22 +2470,22 @@
     </row>
     <row r="61" spans="1:11" ht="21">
       <c r="A61" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E61" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G61" s="12">
         <v>1</v>
@@ -2492,7 +2495,7 @@
     </row>
     <row r="62" spans="1:11" ht="21">
       <c r="A62" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>94</v>
@@ -2501,13 +2504,13 @@
         <v>95</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E62" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G62" s="12">
         <v>1</v>
